--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2227156.026435876</v>
+        <v>2226754.938818789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.4606773121</v>
+        <v>244709.4606773135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>311.3443945620421</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>186.061172251312</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>16.31605350078542</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.43798071871599</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.5681621840666</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.9716792980587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>250.6744486438716</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -911,10 +911,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>137.3443948362518</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -1026,22 +1026,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>182.6277473960718</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>33.45565276144118</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.0990279530006</v>
+        <v>100.690891553375</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>98.99927101837655</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>87.42200803729484</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1227,7 +1227,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1263,10 +1263,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>56.32360047631666</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>144.1833743932223</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>125.2040305762914</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.181958599057</v>
+        <v>280.1819585990571</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.1932755567389</v>
       </c>
       <c r="D11" t="n">
-        <v>255.8884996838121</v>
+        <v>259.1745796012668</v>
       </c>
       <c r="E11" t="n">
-        <v>280.9167171711722</v>
+        <v>280.9167171711724</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0885332591494</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0218011565719</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348818</v>
+        <v>219.571916134882</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.4355400921676</v>
+        <v>75.43554009216773</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>112.1942112825171</v>
       </c>
       <c r="U11" t="n">
-        <v>142.4153373993639</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.9884353171931</v>
       </c>
       <c r="X11" t="n">
-        <v>268.2886935499396</v>
+        <v>268.2886935499398</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461383</v>
+        <v>249.1336236879546</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1497,7 +1497,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>62.30657591935816</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.79866947375405</v>
+        <v>71.79866947375417</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915453</v>
+        <v>57.99866431915466</v>
       </c>
       <c r="D13" t="n">
-        <v>41.62002871673292</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251237</v>
+        <v>40.56777857251249</v>
       </c>
       <c r="F13" t="n">
-        <v>41.03470290069868</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.30940562204651</v>
+        <v>57.30940562204664</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473693</v>
+        <v>47.85777324473706</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956628</v>
+        <v>32.83986842956641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.10541804798372</v>
       </c>
       <c r="S13" t="n">
-        <v>101.6515194465673</v>
+        <v>101.6515194465675</v>
       </c>
       <c r="T13" t="n">
-        <v>120.926018128696</v>
+        <v>119.9229061014033</v>
       </c>
       <c r="U13" t="n">
-        <v>174.3971915920091</v>
+        <v>174.3971915920093</v>
       </c>
       <c r="V13" t="n">
-        <v>102.6543802766406</v>
+        <v>148.2068058733798</v>
       </c>
       <c r="W13" t="n">
-        <v>173.3736919439929</v>
+        <v>173.373691943993</v>
       </c>
       <c r="X13" t="n">
-        <v>119.018793939796</v>
+        <v>119.0187939397961</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.8936616958637</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>280.181958599057</v>
       </c>
       <c r="C14" t="n">
-        <v>224.1275227377818</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D14" t="n">
-        <v>259.1745796012667</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711722</v>
+        <v>280.9167171711723</v>
       </c>
       <c r="F14" t="n">
-        <v>300.0885332591494</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G14" t="n">
-        <v>302.0218011565719</v>
+        <v>302.021801156572</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>112.194211282517</v>
       </c>
       <c r="U14" t="n">
-        <v>142.4153373993639</v>
+        <v>142.415337399364</v>
       </c>
       <c r="V14" t="n">
-        <v>223.6883358392361</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.5084690716053</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.2886935499397</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.6852913461383</v>
+        <v>279.6852913461385</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.86033215541941</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>101.6311968888876</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>71.7986694737541</v>
       </c>
       <c r="C16" t="n">
-        <v>57.99866431915453</v>
+        <v>57.99866431915459</v>
       </c>
       <c r="D16" t="n">
-        <v>41.62002871673292</v>
+        <v>41.62002871673297</v>
       </c>
       <c r="E16" t="n">
-        <v>40.56777857251237</v>
+        <v>40.56777857251242</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069868</v>
+        <v>41.03470290069873</v>
       </c>
       <c r="G16" t="n">
-        <v>57.30940562204651</v>
+        <v>57.30940562204657</v>
       </c>
       <c r="H16" t="n">
-        <v>47.85777324473693</v>
+        <v>47.85777324473699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.83986842956628</v>
+        <v>32.83986842956634</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798359</v>
+        <v>38.10541804798365</v>
       </c>
       <c r="S16" t="n">
-        <v>101.6515194465673</v>
+        <v>101.6515194465674</v>
       </c>
       <c r="T16" t="n">
         <v>120.926018128696</v>
       </c>
       <c r="U16" t="n">
-        <v>174.3971915920091</v>
+        <v>174.3971915920092</v>
       </c>
       <c r="V16" t="n">
-        <v>148.2068058733796</v>
+        <v>148.2068058733797</v>
       </c>
       <c r="W16" t="n">
-        <v>173.3736919439929</v>
+        <v>173.373691943993</v>
       </c>
       <c r="X16" t="n">
-        <v>119.018793939796</v>
+        <v>35.36095029507322</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.03448752489598</v>
+        <v>109.8936616958638</v>
       </c>
     </row>
     <row r="17">
@@ -1938,10 +1938,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>204.8452125849599</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>68.86033215541896</v>
       </c>
       <c r="C21" t="n">
-        <v>71.12171983342589</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2403,7 +2403,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>115.7792398616722</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>62.30657591935771</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2561,19 +2561,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747227</v>
+        <v>248.4072185076648</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>89.9992640757625</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="29">
@@ -2792,13 +2792,13 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>225.5494626784795</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2807,7 +2807,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>261.5427984791046</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1762713617116</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>143.2597570679447</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3032,7 +3032,7 @@
         <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
         <v>249.1019725473692</v>
@@ -3047,7 +3047,7 @@
         <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570695</v>
+        <v>29.35313665570692</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836458</v>
+        <v>43.62079546836455</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871394</v>
+        <v>80.37946665871391</v>
       </c>
       <c r="U32" t="n">
         <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
-        <v>191.8735912154331</v>
+        <v>191.873591215433</v>
       </c>
       <c r="W32" t="n">
-        <v>217.17369069339</v>
+        <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
         <v>236.4739489261366</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3171,7 +3171,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995102</v>
+        <v>39.98392484995099</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535151</v>
+        <v>26.18391969535148</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929895</v>
+        <v>9.805284092929867</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709344</v>
+        <v>8.753033948709316</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895653</v>
+        <v>9.219958276895625</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824349</v>
+        <v>25.49466099824346</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093391</v>
+        <v>16.04302862093388</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763258</v>
+        <v>1.025123805763229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180568</v>
+        <v>6.29067342418054</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276431</v>
+        <v>69.83677482276428</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489295</v>
+        <v>89.11127350489292</v>
       </c>
       <c r="U34" t="n">
         <v>142.5824469682061</v>
@@ -3247,13 +3247,13 @@
         <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
-        <v>141.5589473201899</v>
+        <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599299</v>
+        <v>87.20404931599296</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206068</v>
+        <v>78.07891707206065</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3399,7 +3399,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493049962</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3882,7 +3882,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554799</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.805086103084</v>
+        <v>1103.397866996171</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.805086103084</v>
+        <v>1103.397866996171</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.805086103084</v>
+        <v>1103.397866996171</v>
       </c>
       <c r="E2" t="n">
-        <v>799.0193662091907</v>
+        <v>1103.397866996171</v>
       </c>
       <c r="F2" t="n">
-        <v>384.868175519361</v>
+        <v>788.908579559765</v>
       </c>
       <c r="G2" t="n">
-        <v>372.8045930139531</v>
+        <v>372.804593013953</v>
       </c>
       <c r="H2" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="I2" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J2" t="n">
-        <v>111.981862884068</v>
+        <v>106.4081795636949</v>
       </c>
       <c r="K2" t="n">
-        <v>352.1222349288507</v>
+        <v>346.5485516084777</v>
       </c>
       <c r="L2" t="n">
-        <v>700.0076080137969</v>
+        <v>694.4339246934239</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.246774266885</v>
+        <v>1087.673090946512</v>
       </c>
       <c r="N2" t="n">
-        <v>1466.00444963423</v>
+        <v>1466.004449634228</v>
       </c>
       <c r="O2" t="n">
-        <v>1771.009034107064</v>
+        <v>1771.009034107061</v>
       </c>
       <c r="P2" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="R2" t="n">
-        <v>1999.165930563117</v>
+        <v>1908.527644058968</v>
       </c>
       <c r="S2" t="n">
-        <v>1999.165930563117</v>
+        <v>1721.298668689322</v>
       </c>
       <c r="T2" t="n">
-        <v>1999.165930563117</v>
+        <v>1496.939722420333</v>
       </c>
       <c r="U2" t="n">
-        <v>1744.280594277111</v>
+        <v>1496.939722420333</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.280594277111</v>
+        <v>1496.939722420333</v>
       </c>
       <c r="W2" t="n">
-        <v>1381.745664134712</v>
+        <v>1496.939722420333</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.805086103084</v>
+        <v>1496.939722420333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1193.805086103084</v>
+        <v>1103.397866996171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>572.4167857551688</v>
+        <v>850.9137938033674</v>
       </c>
       <c r="C3" t="n">
-        <v>410.7131129961235</v>
+        <v>689.2101210443221</v>
       </c>
       <c r="D3" t="n">
-        <v>271.8744759863356</v>
+        <v>550.3714840345342</v>
       </c>
       <c r="E3" t="n">
-        <v>124.8464660432068</v>
+        <v>403.3434740914054</v>
       </c>
       <c r="F3" t="n">
-        <v>108.3656039212013</v>
+        <v>268.6496760412797</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3656039212013</v>
+        <v>139.9211760645642</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="I3" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J3" t="n">
-        <v>39.98331861126234</v>
+        <v>100.2374651443684</v>
       </c>
       <c r="K3" t="n">
-        <v>39.98331861126234</v>
+        <v>100.2374651443684</v>
       </c>
       <c r="L3" t="n">
-        <v>167.2715093930766</v>
+        <v>466.059310314484</v>
       </c>
       <c r="M3" t="n">
-        <v>652.304862903303</v>
+        <v>652.3048629033012</v>
       </c>
       <c r="N3" t="n">
-        <v>1147.098430717675</v>
+        <v>1147.098430717672</v>
       </c>
       <c r="O3" t="n">
-        <v>1539.298381501825</v>
+        <v>1539.298381501823</v>
       </c>
       <c r="P3" t="n">
-        <v>1841.394300777523</v>
+        <v>1841.39430077752</v>
       </c>
       <c r="Q3" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="R3" t="n">
-        <v>1999.165930563117</v>
+        <v>1983.57201064522</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.165930563117</v>
+        <v>1830.77252365796</v>
       </c>
       <c r="T3" t="n">
-        <v>1810.480826729102</v>
+        <v>1642.087419823945</v>
       </c>
       <c r="U3" t="n">
-        <v>1591.986034327412</v>
+        <v>1642.087419823945</v>
       </c>
       <c r="V3" t="n">
-        <v>1363.590411775746</v>
+        <v>1642.087419823945</v>
       </c>
       <c r="W3" t="n">
-        <v>1122.274543009056</v>
+        <v>1400.771551057255</v>
       </c>
       <c r="X3" t="n">
-        <v>924.3575548868508</v>
+        <v>1202.854562935049</v>
       </c>
       <c r="Y3" t="n">
-        <v>731.8362285364296</v>
+        <v>1010.333236584628</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.5992881495821</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="C4" t="n">
-        <v>39.98331861126234</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="D4" t="n">
-        <v>39.98331861126234</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="E4" t="n">
-        <v>39.98331861126234</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="F4" t="n">
-        <v>39.98331861126234</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="G4" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="H4" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="I4" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J4" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="K4" t="n">
-        <v>73.58750635590576</v>
+        <v>73.5875063559057</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1945857561653</v>
+        <v>174.1945857561652</v>
       </c>
       <c r="M4" t="n">
         <v>292.188091883767</v>
       </c>
       <c r="N4" t="n">
-        <v>410.6104336333674</v>
+        <v>410.6104336333673</v>
       </c>
       <c r="O4" t="n">
-        <v>509.0740801290571</v>
+        <v>509.074080129057</v>
       </c>
       <c r="P4" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="R4" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="S4" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="T4" t="n">
-        <v>338.8636106728737</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="U4" t="n">
-        <v>338.8636106728737</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="V4" t="n">
-        <v>338.8636106728737</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="W4" t="n">
-        <v>338.8636106728737</v>
+        <v>440.1555313480366</v>
       </c>
       <c r="X4" t="n">
-        <v>338.8636106728737</v>
+        <v>208.9030672434123</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.5992881495821</v>
+        <v>208.9030672434123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1225.043078782083</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="C5" t="n">
-        <v>1225.043078782083</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="D5" t="n">
-        <v>971.8365650003948</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="E5" t="n">
-        <v>971.8365650003948</v>
+        <v>466.1980918064999</v>
       </c>
       <c r="F5" t="n">
-        <v>557.6853743105651</v>
+        <v>52.04690111667026</v>
       </c>
       <c r="G5" t="n">
-        <v>545.621791805157</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="H5" t="n">
-        <v>212.8005174024663</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="I5" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J5" t="n">
-        <v>39.98331861126234</v>
+        <v>111.981862884068</v>
       </c>
       <c r="K5" t="n">
-        <v>252.1162979219429</v>
+        <v>352.1222349288507</v>
       </c>
       <c r="L5" t="n">
-        <v>600.0016710068892</v>
+        <v>600.0016710068869</v>
       </c>
       <c r="M5" t="n">
-        <v>993.2408372599771</v>
+        <v>993.2408372599748</v>
       </c>
       <c r="N5" t="n">
-        <v>1371.572195947693</v>
+        <v>1371.57219594769</v>
       </c>
       <c r="O5" t="n">
-        <v>1676.576780420527</v>
+        <v>1676.576780420524</v>
       </c>
       <c r="P5" t="n">
-        <v>1904.73367687658</v>
+        <v>1904.733676876577</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="R5" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="S5" t="n">
-        <v>1811.936955193471</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="T5" t="n">
-        <v>1587.578008924482</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.578008924482</v>
+        <v>1744.280594277109</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.578008924482</v>
+        <v>1605.548882321299</v>
       </c>
       <c r="W5" t="n">
-        <v>1225.043078782083</v>
+        <v>1243.0139521789</v>
       </c>
       <c r="X5" t="n">
-        <v>1225.043078782083</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="Y5" t="n">
-        <v>1225.043078782083</v>
+        <v>860.9838117003931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.2960791133063</v>
+        <v>780.4574421035184</v>
       </c>
       <c r="C6" t="n">
-        <v>757.592406354261</v>
+        <v>618.7537693444731</v>
       </c>
       <c r="D6" t="n">
         <v>618.7537693444731</v>
@@ -4641,55 +4641,55 @@
         <v>108.3656039212013</v>
       </c>
       <c r="I6" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J6" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="K6" t="n">
-        <v>269.473871171451</v>
+        <v>269.4738711714509</v>
       </c>
       <c r="L6" t="n">
-        <v>269.473871171451</v>
+        <v>635.2957163415665</v>
       </c>
       <c r="M6" t="n">
-        <v>754.5072246816774</v>
+        <v>1120.329069851793</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.300792496049</v>
+        <v>1449.194349993369</v>
       </c>
       <c r="O6" t="n">
-        <v>1539.298381501825</v>
+        <v>1841.39430077752</v>
       </c>
       <c r="P6" t="n">
-        <v>1841.394300777523</v>
+        <v>1841.39430077752</v>
       </c>
       <c r="Q6" t="n">
-        <v>1999.165930563117</v>
+        <v>1999.165930563114</v>
       </c>
       <c r="R6" t="n">
-        <v>1939.381661658063</v>
+        <v>1939.38166165806</v>
       </c>
       <c r="S6" t="n">
-        <v>1786.582174670803</v>
+        <v>1786.5821746708</v>
       </c>
       <c r="T6" t="n">
-        <v>1597.897070836788</v>
+        <v>1786.5821746708</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.402278435098</v>
+        <v>1602.109702553556</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.006655883432</v>
+        <v>1373.71408000189</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.213067235512</v>
+        <v>1132.3982112352</v>
       </c>
       <c r="X6" t="n">
-        <v>919.2960791133063</v>
+        <v>1132.3982112352</v>
       </c>
       <c r="Y6" t="n">
-        <v>919.2960791133063</v>
+        <v>939.8768848847792</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.5992881495821</v>
+        <v>209.599288149582</v>
       </c>
       <c r="C7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="D7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="E7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="F7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="G7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="H7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="I7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="J7" t="n">
-        <v>39.98331861126234</v>
+        <v>39.98331861126229</v>
       </c>
       <c r="K7" t="n">
-        <v>73.58750635590576</v>
+        <v>73.5875063559057</v>
       </c>
       <c r="L7" t="n">
-        <v>174.1945857561653</v>
+        <v>174.1945857561652</v>
       </c>
       <c r="M7" t="n">
         <v>292.188091883767</v>
       </c>
       <c r="N7" t="n">
-        <v>410.6104336333674</v>
+        <v>410.6104336333673</v>
       </c>
       <c r="O7" t="n">
-        <v>509.0740801290571</v>
+        <v>509.074080129057</v>
       </c>
       <c r="P7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="R7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="S7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="T7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="U7" t="n">
-        <v>572.0425638571949</v>
+        <v>572.0425638571948</v>
       </c>
       <c r="V7" t="n">
-        <v>572.0425638571949</v>
+        <v>311.3072594156174</v>
       </c>
       <c r="W7" t="n">
-        <v>572.0425638571949</v>
+        <v>311.3072594156174</v>
       </c>
       <c r="X7" t="n">
-        <v>572.0425638571949</v>
+        <v>311.3072594156174</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.1546568339619</v>
+        <v>209.599288149582</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.19862525603281</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>1325.737190968607</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>952.9132261958302</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>558.127506301937</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1659.098493404309</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1322.119219300251</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>1233.814160676721</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X8" t="n">
-        <v>851.784020198214</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y8" t="n">
-        <v>458.242164774052</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>821.3991591499413</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>659.695486390896</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4896,7 +4896,7 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1888.629049167647</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1888.629049167647</v>
+        <v>1643.051419599979</v>
       </c>
       <c r="V9" t="n">
-        <v>1660.233426615981</v>
+        <v>1414.655797048313</v>
       </c>
       <c r="W9" t="n">
-        <v>1418.917557849291</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>980.8186019312022</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>522.7973049282982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>447.614783593302</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>447.614783593302</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>447.614783593302</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1421.776544862215</v>
+        <v>1087.805859062692</v>
       </c>
       <c r="C11" t="n">
-        <v>1421.776544862215</v>
+        <v>816.9035605205316</v>
       </c>
       <c r="D11" t="n">
-        <v>1163.303312858364</v>
+        <v>555.1110558727875</v>
       </c>
       <c r="E11" t="n">
-        <v>879.5490530895033</v>
+        <v>271.3567961039264</v>
       </c>
       <c r="F11" t="n">
-        <v>576.4293225247059</v>
+        <v>271.3567961039264</v>
       </c>
       <c r="G11" t="n">
-        <v>271.3567961039263</v>
+        <v>271.3567961039264</v>
       </c>
       <c r="H11" t="n">
         <v>49.56698182626786</v>
@@ -5039,52 +5039,52 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>230.3874601676177</v>
+        <v>230.3874601676175</v>
       </c>
       <c r="K11" t="n">
-        <v>493.668241069301</v>
+        <v>470.5278322124003</v>
       </c>
       <c r="L11" t="n">
-        <v>841.5536141542473</v>
+        <v>818.4132052973466</v>
       </c>
       <c r="M11" t="n">
-        <v>1234.792780407335</v>
+        <v>1254.780129873165</v>
       </c>
       <c r="N11" t="n">
-        <v>1721.946073163595</v>
+        <v>1741.933422629425</v>
       </c>
       <c r="O11" t="n">
-        <v>2026.950657636429</v>
+        <v>2046.938007102259</v>
       </c>
       <c r="P11" t="n">
-        <v>2363.929488161026</v>
+        <v>2383.916837626856</v>
       </c>
       <c r="Q11" t="n">
-        <v>2458.361741847563</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2402.15157606878</v>
+        <v>2402.151576068779</v>
       </c>
       <c r="T11" t="n">
-        <v>2402.15157606878</v>
+        <v>2288.824089924822</v>
       </c>
       <c r="U11" t="n">
-        <v>2258.297699907806</v>
+        <v>2144.970213763848</v>
       </c>
       <c r="V11" t="n">
-        <v>2258.297699907806</v>
+        <v>2144.970213763848</v>
       </c>
       <c r="W11" t="n">
-        <v>2258.297699907806</v>
+        <v>1893.466743746482</v>
       </c>
       <c r="X11" t="n">
-        <v>1987.299019554332</v>
+        <v>1622.468063393007</v>
       </c>
       <c r="Y11" t="n">
-        <v>1704.788624255202</v>
+        <v>1370.817938455679</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H12" t="n">
         <v>117.9492671362069</v>
@@ -5142,28 +5142,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.0197311247005</v>
+        <v>288.5301032283053</v>
       </c>
       <c r="C13" t="n">
-        <v>313.4352217114131</v>
+        <v>229.9455938150177</v>
       </c>
       <c r="D13" t="n">
-        <v>271.3947886642081</v>
+        <v>229.9455938150177</v>
       </c>
       <c r="E13" t="n">
-        <v>230.4172345505592</v>
+        <v>188.9680397013688</v>
       </c>
       <c r="F13" t="n">
-        <v>188.9680397013686</v>
+        <v>188.9680397013688</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0797511942509</v>
+        <v>131.079751194251</v>
       </c>
       <c r="H13" t="n">
-        <v>82.73856609855706</v>
+        <v>82.73856609855719</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52681635684272</v>
+        <v>99.52681635684257</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9529381700303</v>
+        <v>241.95293817003</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388339</v>
+        <v>451.3819516388335</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349797</v>
+        <v>678.1973918349793</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531242</v>
+        <v>905.4416676531237</v>
       </c>
       <c r="O13" t="n">
-        <v>1112.727248217358</v>
+        <v>1112.727248217357</v>
       </c>
       <c r="P13" t="n">
-        <v>1284.51766601404</v>
+        <v>1284.517666014039</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.569151829064</v>
+        <v>1355.569151829063</v>
       </c>
       <c r="R13" t="n">
-        <v>1355.569151829064</v>
+        <v>1317.078830568474</v>
       </c>
       <c r="S13" t="n">
-        <v>1252.890849357784</v>
+        <v>1214.400528097194</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.743356298495</v>
+        <v>1093.266279509918</v>
       </c>
       <c r="U13" t="n">
-        <v>954.5845769126271</v>
+        <v>917.1075001240497</v>
       </c>
       <c r="V13" t="n">
-        <v>850.8932837038992</v>
+        <v>767.4036558075044</v>
       </c>
       <c r="W13" t="n">
-        <v>675.7683423463307</v>
+        <v>592.2787144499357</v>
       </c>
       <c r="X13" t="n">
-        <v>555.5473383667387</v>
+        <v>472.0577104703437</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.5436396840481</v>
+        <v>361.054011787653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1429.69744033732</v>
+        <v>1212.415797122866</v>
       </c>
       <c r="C14" t="n">
-        <v>1203.30600322845</v>
+        <v>941.513498580706</v>
       </c>
       <c r="D14" t="n">
-        <v>941.5134985807058</v>
+        <v>941.513498580706</v>
       </c>
       <c r="E14" t="n">
-        <v>657.759238811845</v>
+        <v>657.7592388118451</v>
       </c>
       <c r="F14" t="n">
-        <v>354.6395082470476</v>
+        <v>354.6395082470477</v>
       </c>
       <c r="G14" t="n">
         <v>49.56698182626786</v>
@@ -5279,22 +5279,22 @@
         <v>121.5655260990735</v>
       </c>
       <c r="K14" t="n">
-        <v>361.7058981438563</v>
+        <v>470.5278322124004</v>
       </c>
       <c r="L14" t="n">
-        <v>818.4132052973466</v>
+        <v>861.5409636200768</v>
       </c>
       <c r="M14" t="n">
-        <v>1211.652371550435</v>
+        <v>1363.602063941709</v>
       </c>
       <c r="N14" t="n">
-        <v>1698.805664306694</v>
+        <v>1850.755356697969</v>
       </c>
       <c r="O14" t="n">
-        <v>2003.810248779528</v>
+        <v>2155.759941170802</v>
       </c>
       <c r="P14" t="n">
-        <v>2340.789079304126</v>
+        <v>2383.916837626856</v>
       </c>
       <c r="Q14" t="n">
         <v>2478.349091313393</v>
@@ -5306,22 +5306,22 @@
         <v>2478.349091313393</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.021605169437</v>
+        <v>2365.021605169436</v>
       </c>
       <c r="U14" t="n">
         <v>2221.167729008463</v>
       </c>
       <c r="V14" t="n">
-        <v>1995.219915029437</v>
+        <v>2221.167729008463</v>
       </c>
       <c r="W14" t="n">
-        <v>1995.219915029437</v>
+        <v>2048.936952168458</v>
       </c>
       <c r="X14" t="n">
-        <v>1995.219915029437</v>
+        <v>1777.938271814983</v>
       </c>
       <c r="Y14" t="n">
-        <v>1712.709519730307</v>
+        <v>1495.427876515853</v>
       </c>
     </row>
     <row r="15">
@@ -5379,28 +5379,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S15" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X15" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943921</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.0197311247004</v>
+        <v>372.019731124701</v>
       </c>
       <c r="C16" t="n">
-        <v>313.435221711413</v>
+        <v>313.4352217114134</v>
       </c>
       <c r="D16" t="n">
-        <v>271.3947886642081</v>
+        <v>271.3947886642084</v>
       </c>
       <c r="E16" t="n">
-        <v>230.4172345505592</v>
+        <v>230.4172345505594</v>
       </c>
       <c r="F16" t="n">
-        <v>188.9680397013686</v>
+        <v>188.9680397013688</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0797511942509</v>
+        <v>131.0797511942511</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855706</v>
+        <v>82.7385660985571</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>99.52681635684272</v>
+        <v>99.52681635684264</v>
       </c>
       <c r="K16" t="n">
-        <v>241.9529381700303</v>
+        <v>241.9529381700302</v>
       </c>
       <c r="L16" t="n">
-        <v>451.3819516388339</v>
+        <v>451.3819516388338</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349797</v>
+        <v>678.1973918349795</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531241</v>
+        <v>905.441667653124</v>
       </c>
       <c r="O16" t="n">
         <v>1112.727248217358</v>
@@ -5455,7 +5455,7 @@
         <v>1284.51766601404</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.569151829065</v>
+        <v>1355.569151829064</v>
       </c>
       <c r="R16" t="n">
         <v>1317.078830568475</v>
@@ -5467,19 +5467,19 @@
         <v>1092.253035037906</v>
       </c>
       <c r="U16" t="n">
-        <v>916.0942556520383</v>
+        <v>916.0942556520379</v>
       </c>
       <c r="V16" t="n">
-        <v>766.3904113354932</v>
+        <v>766.3904113354928</v>
       </c>
       <c r="W16" t="n">
-        <v>591.2654699779247</v>
+        <v>591.2654699779241</v>
       </c>
       <c r="X16" t="n">
-        <v>471.0444659983327</v>
+        <v>555.5473383667393</v>
       </c>
       <c r="Y16" t="n">
-        <v>372.0197311247004</v>
+        <v>444.5436396840486</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.167124175249</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D17" t="n">
-        <v>916.160358193677</v>
+        <v>916.1603581936776</v>
       </c>
       <c r="E17" t="n">
-        <v>694.191837090988</v>
+        <v>694.1918370909884</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923626</v>
+        <v>452.8578451923628</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
@@ -5516,10 +5516,10 @@
         <v>121.5655260990735</v>
       </c>
       <c r="K17" t="n">
-        <v>361.7058981438563</v>
+        <v>531.0840346791153</v>
       </c>
       <c r="L17" t="n">
-        <v>740.4285586866471</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M17" t="n">
         <v>1303.045861474994</v>
@@ -5531,7 +5531,7 @@
         <v>1986.381804635544</v>
       </c>
       <c r="P17" t="n">
-        <v>2383.916837626856</v>
+        <v>2214.538701091597</v>
       </c>
       <c r="Q17" t="n">
         <v>2478.349091313393</v>
@@ -5555,7 +5555,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.234681411011</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y17" t="n">
         <v>1546.510024778053</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>860.497457018373</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C18" t="n">
-        <v>698.7937842593277</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D18" t="n">
-        <v>559.9551472495398</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E18" t="n">
-        <v>412.9271373064109</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F18" t="n">
-        <v>278.2333392562853</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G18" t="n">
-        <v>149.5048392795698</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H18" t="n">
-        <v>49.56698182626786</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I18" t="n">
         <v>49.56698182626786</v>
@@ -5628,16 +5628,16 @@
         <v>1858.585439185374</v>
       </c>
       <c r="V18" t="n">
-        <v>1651.67108303895</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W18" t="n">
-        <v>1410.35521427226</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X18" t="n">
-        <v>1212.438226150055</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.916899799634</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="19">
@@ -5677,10 +5677,10 @@
         <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>183.7782489711708</v>
+        <v>186.9950662080454</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N19" t="n">
         <v>423.4109140852476</v>
@@ -5732,13 +5732,13 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936774</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>694.1918370909883</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923626</v>
+        <v>452.8578451923627</v>
       </c>
       <c r="G20" t="n">
         <v>209.5710574377546</v>
@@ -5750,25 +5750,25 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5655260990735</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K20" t="n">
-        <v>361.7058981438563</v>
+        <v>700.4621712143743</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5912712288025</v>
+        <v>1048.347544299321</v>
       </c>
       <c r="M20" t="n">
-        <v>1272.20857401715</v>
+        <v>1441.586710552408</v>
       </c>
       <c r="N20" t="n">
-        <v>1650.539932704865</v>
+        <v>1850.755356697969</v>
       </c>
       <c r="O20" t="n">
-        <v>1955.544517177699</v>
+        <v>2155.759941170802</v>
       </c>
       <c r="P20" t="n">
-        <v>2214.538701091597</v>
+        <v>2383.916837626856</v>
       </c>
       <c r="Q20" t="n">
         <v>2478.349091313393</v>
@@ -5777,19 +5777,19 @@
         <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
-        <v>2463.937314734952</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T20" t="n">
-        <v>2412.395567257167</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U20" t="n">
-        <v>2330.327429762365</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.16535444951</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W20" t="n">
-        <v>1976.447623098315</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X20" t="n">
         <v>1767.234681411012</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131311</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C21" t="n">
         <v>767.1760695692666</v>
@@ -5832,49 +5832,49 @@
         <v>109.821128359374</v>
       </c>
       <c r="K21" t="n">
-        <v>264.160746664487</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L21" t="n">
-        <v>629.9825918346027</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M21" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N21" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252102</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P21" t="n">
-        <v>2320.577461527799</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q21" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S21" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5917,19 +5917,19 @@
         <v>183.7782489711708</v>
       </c>
       <c r="M22" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356472</v>
       </c>
       <c r="N22" t="n">
-        <v>420.1940968483729</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O22" t="n">
-        <v>518.6577433440626</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P22" t="n">
-        <v>581.6262270722004</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.6262270722004</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R22" t="n">
         <v>584.843044309075</v>
@@ -5953,7 +5953,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="23">
@@ -5996,19 +5996,19 @@
         <v>709.5912712288025</v>
       </c>
       <c r="M23" t="n">
-        <v>1222.502309542449</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N23" t="n">
-        <v>1600.833668230165</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O23" t="n">
-        <v>1905.838252702999</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.373285694311</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2397.805539380848</v>
+        <v>2447.511803855548</v>
       </c>
       <c r="R23" t="n">
         <v>2478.349091313393</v>
@@ -6020,7 +6020,7 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762363</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V23" t="n">
         <v>2166.165354449509</v>
@@ -6029,10 +6029,10 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.510024778054</v>
+        <v>1546.510024778053</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>898.8004595181853</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C24" t="n">
-        <v>737.0967867591401</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D24" t="n">
-        <v>598.2581497493521</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E24" t="n">
         <v>481.3094226163499</v>
@@ -6066,22 +6066,22 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J24" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0575343864565</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
-        <v>629.9825918346022</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P24" t="n">
         <v>2320.577461527799</v>
@@ -6090,28 +6090,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R24" t="n">
-        <v>2478.349091313393</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S24" t="n">
-        <v>2325.549604326133</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T24" t="n">
-        <v>2136.864500492119</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U24" t="n">
-        <v>1918.369708090429</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V24" t="n">
-        <v>1689.974085538763</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W24" t="n">
-        <v>1448.658216772073</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X24" t="n">
-        <v>1250.741228649867</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y24" t="n">
-        <v>1058.219902299446</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="25">
@@ -6127,10 +6127,10 @@
         <v>49.56698182626786</v>
       </c>
       <c r="D25" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E25" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F25" t="n">
         <v>52.78379906314252</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.089958050125</v>
+        <v>1415.22127930891</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.732124138698</v>
+        <v>1147.863445397483</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.484084121689</v>
+        <v>889.6154053804734</v>
       </c>
       <c r="E26" t="n">
-        <v>938.2742889835617</v>
+        <v>889.6154053804734</v>
       </c>
       <c r="F26" t="n">
-        <v>638.6990230494985</v>
+        <v>638.6990230494988</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1709612594532</v>
+        <v>337.1709612594533</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9256116125289</v>
+        <v>118.925611612529</v>
       </c>
       <c r="I26" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J26" t="n">
-        <v>244.9787457030235</v>
+        <v>244.9787457030236</v>
       </c>
       <c r="K26" t="n">
-        <v>589.9307838442168</v>
+        <v>597.4149816009331</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.11202078229</v>
+        <v>1057.596218539006</v>
       </c>
       <c r="M26" t="n">
-        <v>1555.647050888504</v>
+        <v>1555.647050888506</v>
       </c>
       <c r="N26" t="n">
-        <v>2046.274273429347</v>
+        <v>2046.274273429348</v>
       </c>
       <c r="O26" t="n">
-        <v>2463.574721755307</v>
+        <v>2463.574721755309</v>
       </c>
       <c r="P26" t="n">
-        <v>2804.027482064487</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q26" t="n">
-        <v>3010.755599604151</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R26" t="n">
-        <v>3034.216878854564</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240684</v>
+        <v>2961.563828240686</v>
       </c>
       <c r="T26" t="n">
-        <v>2851.780806727461</v>
+        <v>2851.780806727463</v>
       </c>
       <c r="U26" t="n">
-        <v>2760.872459176186</v>
+        <v>2711.471395197223</v>
       </c>
       <c r="V26" t="n">
-        <v>2538.469109827893</v>
+        <v>2489.068045848931</v>
       </c>
       <c r="W26" t="n">
-        <v>2290.51010444126</v>
+        <v>2241.109040462298</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.05588871852</v>
+        <v>1973.654824739558</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.089958050125</v>
+        <v>1694.688894071162</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>129.0666228870303</v>
       </c>
       <c r="I27" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J27" t="n">
         <v>120.9384841101974</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.3258344603852</v>
+        <v>358.3258344603854</v>
       </c>
       <c r="C28" t="n">
         <v>303.2857896778319</v>
@@ -6367,7 +6367,7 @@
         <v>264.7898212613611</v>
       </c>
       <c r="E28" t="n">
-        <v>227.3567317784463</v>
+        <v>227.3567317784461</v>
       </c>
       <c r="F28" t="n">
         <v>189.4520015599898</v>
@@ -6376,28 +6376,28 @@
         <v>135.1081776836062</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864635</v>
+        <v>90.31145721864637</v>
       </c>
       <c r="I28" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922484</v>
+        <v>114.1181018922487</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900184</v>
+        <v>260.0181534900189</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434046</v>
+        <v>472.921096743405</v>
       </c>
       <c r="M28" t="n">
-        <v>703.2104667241331</v>
+        <v>703.2104667241334</v>
       </c>
       <c r="N28" t="n">
-        <v>933.9286723268601</v>
+        <v>933.9286723268604</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.688182675676</v>
+        <v>1144.688182675677</v>
       </c>
       <c r="P28" t="n">
         <v>1319.952530256941</v>
@@ -6415,7 +6415,7 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024581</v>
+        <v>969.1809082024585</v>
       </c>
       <c r="V28" t="n">
         <v>823.0215285166474</v>
@@ -6424,10 +6424,10 @@
         <v>651.4410517898129</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409551</v>
+        <v>534.7645124409553</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889987</v>
+        <v>427.3052783889988</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1415.221279308909</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="C29" t="n">
-        <v>1147.863445397482</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="D29" t="n">
-        <v>889.6154053804725</v>
+        <v>1160.242810086251</v>
       </c>
       <c r="E29" t="n">
-        <v>661.7876653012001</v>
+        <v>880.0330149481244</v>
       </c>
       <c r="F29" t="n">
-        <v>362.2123993671369</v>
+        <v>580.4577490140612</v>
       </c>
       <c r="G29" t="n">
-        <v>60.68433757709128</v>
+        <v>278.9296872240157</v>
       </c>
       <c r="H29" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="I29" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J29" t="n">
         <v>244.9787457030236</v>
       </c>
       <c r="K29" t="n">
-        <v>597.4149816009329</v>
+        <v>597.4149816009331</v>
       </c>
       <c r="L29" t="n">
         <v>1057.596218539006</v>
       </c>
       <c r="M29" t="n">
-        <v>1555.647050888504</v>
+        <v>1563.13124864522</v>
       </c>
       <c r="N29" t="n">
-        <v>2046.274273429347</v>
+        <v>2053.758471186063</v>
       </c>
       <c r="O29" t="n">
-        <v>2463.574721755307</v>
+        <v>2471.058919512023</v>
       </c>
       <c r="P29" t="n">
-        <v>2804.027482064487</v>
+        <v>2804.027482064489</v>
       </c>
       <c r="Q29" t="n">
-        <v>3010.755599604151</v>
+        <v>3010.755599604152</v>
       </c>
       <c r="R29" t="n">
-        <v>3034.216878854564</v>
+        <v>3034.216878854565</v>
       </c>
       <c r="S29" t="n">
-        <v>2961.563828240684</v>
+        <v>2961.563828240685</v>
       </c>
       <c r="T29" t="n">
-        <v>2851.780806727462</v>
+        <v>2851.780806727463</v>
       </c>
       <c r="U29" t="n">
-        <v>2711.471395197222</v>
+        <v>2711.471395197223</v>
       </c>
       <c r="V29" t="n">
-        <v>2489.06804584893</v>
+        <v>2489.068045848931</v>
       </c>
       <c r="W29" t="n">
-        <v>2241.109040462297</v>
+        <v>2241.109040462298</v>
       </c>
       <c r="X29" t="n">
-        <v>1973.654824739557</v>
+        <v>1976.92439553391</v>
       </c>
       <c r="Y29" t="n">
-        <v>1694.688894071161</v>
+        <v>1697.958464865514</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>129.0666228870303</v>
       </c>
       <c r="I30" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J30" t="n">
         <v>120.9384841101974</v>
@@ -6564,28 +6564,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.833112414238</v>
+        <v>2519.545729874343</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.033625426979</v>
+        <v>2366.746242887083</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.348521592964</v>
+        <v>2178.061139053068</v>
       </c>
       <c r="U30" t="n">
-        <v>1944.853729191274</v>
+        <v>1959.566346651379</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.458106639608</v>
+        <v>1731.170724099713</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.142237872918</v>
+        <v>1489.854855333023</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.225249750713</v>
+        <v>1291.937867210817</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="31">
@@ -6598,25 +6598,25 @@
         <v>358.3258344603852</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2857896778318</v>
+        <v>303.285789677832</v>
       </c>
       <c r="D31" t="n">
-        <v>264.7898212613609</v>
+        <v>264.7898212613611</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3567317784462</v>
+        <v>227.3567317784463</v>
       </c>
       <c r="F31" t="n">
-        <v>189.4520015599897</v>
+        <v>189.4520015599898</v>
       </c>
       <c r="G31" t="n">
-        <v>135.1081776836061</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31145721864635</v>
+        <v>90.31145721864638</v>
       </c>
       <c r="I31" t="n">
-        <v>60.68433757709128</v>
+        <v>60.6843375770913</v>
       </c>
       <c r="J31" t="n">
         <v>114.1181018922489</v>
@@ -6692,37 +6692,37 @@
         <v>277.9467416697662</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271695</v>
+        <v>88.29303307271692</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J32" t="n">
-        <v>243.3873434412164</v>
+        <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>623.8462467321083</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>1112.050151063164</v>
+        <v>1139.623283228017</v>
       </c>
       <c r="M32" t="n">
-        <v>1645.607848562361</v>
+        <v>1645.60784856236</v>
       </c>
       <c r="N32" t="n">
-        <v>2023.939207250076</v>
+        <v>2164.257738496185</v>
       </c>
       <c r="O32" t="n">
         <v>2469.262322969019</v>
       </c>
       <c r="P32" t="n">
-        <v>2697.419219425073</v>
+        <v>2837.737750671181</v>
       </c>
       <c r="Q32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.170004357718</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.170004357718</v>
       </c>
       <c r="S32" t="n">
         <v>2888.108594793714</v>
@@ -6740,7 +6740,7 @@
         <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.157796541962</v>
+        <v>2043.157796541961</v>
       </c>
       <c r="Y32" t="n">
         <v>1792.783506923441</v>
@@ -6774,7 +6774,7 @@
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6783,7 +6783,7 @@
         <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2099443505649</v>
+        <v>714.2099443505648</v>
       </c>
       <c r="M33" t="n">
         <v>1199.243297860791</v>
@@ -6801,22 +6801,22 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.792174924301</v>
+        <v>2517.504792384406</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.307584103027</v>
+        <v>2176.020201563132</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.812791701337</v>
+        <v>1957.525409161442</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.417169149671</v>
+        <v>1729.129786609776</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.101300382981</v>
+        <v>1487.813917843086</v>
       </c>
       <c r="X33" t="n">
         <v>1289.896929720881</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213231</v>
+        <v>156.1434096213229</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886448</v>
+        <v>129.6950058886447</v>
       </c>
       <c r="D34" t="n">
-        <v>119.790678522049</v>
+        <v>119.7906785220488</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890092</v>
+        <v>110.9492300890091</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204278</v>
+        <v>101.6361409204277</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391919</v>
+        <v>75.88395809391913</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883444</v>
+        <v>59.6788786788344</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="K34" t="n">
-        <v>92.24758783179779</v>
+        <v>232.566119077907</v>
       </c>
       <c r="L34" t="n">
         <v>333.1731984781665</v>
@@ -6868,40 +6868,40 @@
         <v>451.1667046057682</v>
       </c>
       <c r="N34" t="n">
-        <v>633.2200900986746</v>
+        <v>569.5890463553685</v>
       </c>
       <c r="O34" t="n">
-        <v>731.6837365943643</v>
+        <v>769.454184847883</v>
       </c>
       <c r="P34" t="n">
-        <v>934.9707515686111</v>
+        <v>832.4226685760208</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686111</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886307</v>
+        <v>928.6165359886303</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979597</v>
+        <v>858.0743391979593</v>
       </c>
       <c r="T34" t="n">
-        <v>768.06295181928</v>
+        <v>768.0629518192795</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140212</v>
+        <v>624.0402781140209</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780853</v>
+        <v>506.472539478085</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011258</v>
+        <v>363.4837038011256</v>
       </c>
       <c r="X34" t="n">
-        <v>275.398805502143</v>
+        <v>275.3988055021427</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000615</v>
+        <v>196.5312125000613</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
         <v>2460.60146441775</v>
@@ -7038,13 +7038,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
         <v>1949.982683436373</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D37" t="n">
+      <c r="H37" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="E37" t="n">
-        <v>66.5844139977867</v>
-      </c>
-      <c r="F37" t="n">
-        <v>81.60589854858323</v>
-      </c>
-      <c r="G37" t="n">
-        <v>80.4932864239655</v>
-      </c>
-      <c r="H37" t="n">
-        <v>80.4932864239655</v>
-      </c>
       <c r="I37" t="n">
-        <v>80.4932864239655</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>80.4932864239655</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
@@ -7160,49 +7160,49 @@
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L38" t="n">
-        <v>826.9339095659941</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M38" t="n">
         <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O38" t="n">
         <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
         <v>2391.981869702243</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254958</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.700572135722</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
         <v>2509.962066659337</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N40" t="n">
         <v>467.9465500458442</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7406,31 +7406,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>163.274974547947</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>403.4153465927298</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>751.3007196776761</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421796</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7451,10 +7451,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7518,16 +7518,16 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1282.354203995812</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="J43" t="n">
-        <v>97.31943502373917</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="K43" t="n">
-        <v>130.9236227683826</v>
+        <v>113.0021462133981</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>213.6092256136577</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>331.6027317412594</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R43" t="n">
         <v>629.3786802696717</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478544</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614935</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409162</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
         <v>56.11073664575752</v>
@@ -7646,28 +7646,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>238.9081644362655</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0485364810483</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>826.9339095659946</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.640850310115</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7725,13 +7725,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>54.02211951749102</v>
       </c>
       <c r="C46" t="n">
+        <v>52.21328648670352</v>
+      </c>
+      <c r="D46" t="n">
+        <v>52.21328648670352</v>
+      </c>
+      <c r="E46" t="n">
+        <v>52.21328648670352</v>
+      </c>
+      <c r="F46" t="n">
+        <v>52.21328648670352</v>
+      </c>
+      <c r="G46" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D46" t="n">
-        <v>65.54268635500831</v>
-      </c>
-      <c r="E46" t="n">
-        <v>65.54268635500831</v>
-      </c>
-      <c r="F46" t="n">
-        <v>65.54268635500831</v>
-      </c>
-      <c r="G46" t="n">
-        <v>64.43007423039053</v>
-      </c>
       <c r="H46" t="n">
-        <v>64.43007423039053</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>64.43007423039053</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437655</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440251</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716268</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212272</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169168</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450546</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>583.4760541808921</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>518.1042375041031</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>398.7211345007353</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>305.7929665666901</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>187.4437015916214</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>123.9983739945293</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>69.77035169433864</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>214.195616571804</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,7 +7988,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>562.9210185836897</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8055,19 +8055,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>241.1493636537884</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>303.6107233584249</v>
       </c>
       <c r="N3" t="n">
-        <v>606.5066237084875</v>
+        <v>606.5066237084869</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>393.0987406515019</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>441.9434809288077</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8298,19 +8298,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>606.5066237084875</v>
+        <v>438.9022927258662</v>
       </c>
       <c r="O6" t="n">
-        <v>408.7863061927035</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8544,10 +8544,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555166</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.1904394555166</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>267.8947735152657</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>467.0451885692747</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>338.0915646308308</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.1932755567387</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.2860799174546</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>300.0885332591495</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>302.0218011565721</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127950997</v>
+        <v>61.1678812795101</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>112.194211282517</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.6883358392361</v>
+        <v>223.6883358392362</v>
       </c>
       <c r="W11" t="n">
-        <v>248.988435317193</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>30.55166765818387</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.62002871673305</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.0347029006988</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.10541804798359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.003112027292829</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.55242559673904</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.06575281895694</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5719161348818</v>
+        <v>219.5719161348819</v>
       </c>
       <c r="I14" t="n">
-        <v>61.16788127950997</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.4355400921676</v>
+        <v>75.43554009216766</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>223.6883358392361</v>
       </c>
       <c r="W14" t="n">
-        <v>248.988435317193</v>
+        <v>78.47996624558775</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499396</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.79866947375405</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>83.65784364472285</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.85917417096773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>48.17229476705783</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>48.90705333917467</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24680,13 +24680,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>51.85823450826594</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>57.65886129508321</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>3.236875086408177</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>709896.3675489479</v>
+        <v>709896.3675489478</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760250.5904630254</v>
+        <v>760250.5904630256</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760250.5904630254</v>
+        <v>760250.5904630256</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582819</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="D2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="E2" t="n">
+        <v>502121.8209492557</v>
+      </c>
+      <c r="F2" t="n">
         <v>502121.8209492558</v>
       </c>
-      <c r="F2" t="n">
-        <v>502121.820949256</v>
-      </c>
       <c r="G2" t="n">
-        <v>556527.443858281</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="H2" t="n">
         <v>556527.4438582811</v>
@@ -26335,25 +26335,25 @@
         <v>556527.4438582814</v>
       </c>
       <c r="J2" t="n">
-        <v>537738.2225226286</v>
+        <v>537738.2225226278</v>
       </c>
       <c r="K2" t="n">
-        <v>537738.2225226284</v>
+        <v>537738.2225226285</v>
       </c>
       <c r="L2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582821</v>
       </c>
       <c r="M2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="N2" t="n">
-        <v>556527.4438582811</v>
+        <v>556527.4438582812</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="P2" t="n">
-        <v>556527.4438582814</v>
+        <v>556527.4438582815</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167491.6210370258</v>
+        <v>167491.6210370256</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238689</v>
+        <v>7924.705156238883</v>
       </c>
       <c r="E3" t="n">
-        <v>116088.0659382699</v>
+        <v>116088.0659382697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>48934.30502360797</v>
+        <v>48934.30502360802</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>208937.1379178785</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>71578.88473510899</v>
+        <v>71578.88473510905</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589755</v>
+        <v>19514.53999589753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41809.82738295899</v>
+        <v>41809.82738295892</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192651.407406988</v>
+        <v>192651.4074069881</v>
       </c>
       <c r="C4" t="n">
-        <v>192651.407406988</v>
+        <v>192651.4074069881</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>134736.3063521962</v>
+        <v>134736.306352196</v>
       </c>
       <c r="F4" t="n">
-        <v>134736.3063521962</v>
+        <v>134736.3063521961</v>
       </c>
       <c r="G4" t="n">
         <v>177327.6980802156</v>
@@ -26439,13 +26439,13 @@
         <v>177327.6980802156</v>
       </c>
       <c r="J4" t="n">
-        <v>161552.0298841779</v>
+        <v>161552.029884178</v>
       </c>
       <c r="K4" t="n">
-        <v>161552.0298841779</v>
+        <v>161552.029884178</v>
       </c>
       <c r="L4" t="n">
-        <v>176098.1338278879</v>
+        <v>176098.133827888</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64014.92214455937</v>
+        <v>64014.92214455934</v>
       </c>
       <c r="C5" t="n">
-        <v>64014.92214455937</v>
+        <v>64014.92214455934</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46911.8669710024</v>
+        <v>46911.86697100238</v>
       </c>
       <c r="F5" t="n">
         <v>46911.8669710024</v>
@@ -26485,19 +26485,19 @@
         <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
         <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55656.05714269896</v>
+        <v>55656.05714269899</v>
       </c>
       <c r="K5" t="n">
-        <v>55656.05714269896</v>
+        <v>55656.05714269898</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505465</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132369.4932697084</v>
+        <v>132369.4932697088</v>
       </c>
       <c r="C6" t="n">
         <v>299861.1143067342</v>
       </c>
       <c r="D6" t="n">
-        <v>297260.9447318384</v>
+        <v>297260.9447318382</v>
       </c>
       <c r="E6" t="n">
-        <v>204385.5816877873</v>
+        <v>204197.9760915495</v>
       </c>
       <c r="F6" t="n">
-        <v>320473.6476260574</v>
+        <v>320286.0420298192</v>
       </c>
       <c r="G6" t="n">
-        <v>278211.2511721679</v>
+        <v>278211.2511721682</v>
       </c>
       <c r="H6" t="n">
         <v>327145.556195776</v>
@@ -26543,25 +26543,25 @@
         <v>327145.5561957762</v>
       </c>
       <c r="J6" t="n">
-        <v>111592.9975778732</v>
+        <v>111528.2071594735</v>
       </c>
       <c r="K6" t="n">
-        <v>320530.1354957515</v>
+        <v>320465.3450773528</v>
       </c>
       <c r="L6" t="n">
-        <v>252365.8466802302</v>
+        <v>252365.8466802304</v>
       </c>
       <c r="M6" t="n">
-        <v>308586.966429502</v>
+        <v>308586.9664295018</v>
       </c>
       <c r="N6" t="n">
-        <v>328101.5064253991</v>
+        <v>328101.5064253992</v>
       </c>
       <c r="O6" t="n">
-        <v>286291.6790424403</v>
+        <v>286291.6790424404</v>
       </c>
       <c r="P6" t="n">
-        <v>328101.5064253993</v>
+        <v>328101.5064253995</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="F2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G2" t="n">
         <v>171.0890268032919</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407792</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="C4" t="n">
-        <v>499.7914826407792</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="G4" t="n">
         <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
         <v>619.5872728283482</v>
       </c>
       <c r="J4" t="n">
-        <v>758.5542197136409</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="K4" t="n">
-        <v>758.5542197136409</v>
+        <v>758.5542197136413</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894297</v>
+        <v>733.0425010894296</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>61.16788127950997</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.26228422869873</v>
+        <v>52.26228422869865</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>89.47360591888624</v>
+        <v>89.47360591888632</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487194</v>
+        <v>24.39317499487191</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869873</v>
+        <v>52.26228422869865</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.7914826407792</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421108</v>
+        <v>25.51171862421171</v>
       </c>
       <c r="E4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.16788127950997</v>
+        <v>61.16788127951003</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.26228422869873</v>
+        <v>52.26228422869865</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.7914826407792</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421108</v>
+        <v>25.51171862421171</v>
       </c>
       <c r="M4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98.6652842208893</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>192.1486668224096</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>117.030806568839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>43.74844549728768</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27549,7 +27549,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,13 +27597,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>152.7266752837083</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.84312792158693</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>118.4212764811771</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>196.2650865267662</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>33.68209708160111</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.4470573175819</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.71577926664506</v>
+        <v>119.1239156662707</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>311.0104077645548</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27901,22 +27901,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>271.4875728036801</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>159.9862440013563</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>51.75444384776102</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>132.9239208208702</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="C11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="D11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="E11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="F11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="G11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="H11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="I11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="J11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="K11" t="n">
-        <v>23.37415036050564</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>43.56339224518194</v>
       </c>
       <c r="N11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.921145523782</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="T11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="U11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="V11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="W11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="X11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>88.96491619802896</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="C13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="D13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="E13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="F13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="G13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="H13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="I13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="J13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="K13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="L13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="M13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="N13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="O13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="P13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="R13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="S13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="T13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="U13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="V13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="W13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="X13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237818</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L14" t="n">
-        <v>109.921145523782</v>
+        <v>43.56339224518206</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>109.921145523782</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.56339224518248</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.96491619802886</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>88.96491619802934</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="C16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="D16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="E16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="F16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="G16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="H16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="I16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="J16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="K16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="L16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="M16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="N16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="O16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="P16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="R16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="S16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="T16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="U16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="V16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="W16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="X16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.921145523782</v>
+        <v>109.9211455237819</v>
       </c>
     </row>
     <row r="17">
@@ -28588,25 +28588,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="L17" t="n">
-        <v>31.14877520994401</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>31.14877520994406</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>171.0890268032919</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>21.26645374118951</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.249310340277447</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.249310340277432</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28822,28 +28822,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>31.14877520994389</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>31.14877520994452</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>88.96491619802931</v>
       </c>
       <c r="C21" t="n">
-        <v>88.96491619802896</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.249310340277432</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>151.2758739120429</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>171.0890268032919</v>
@@ -29068,22 +29068,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>120.8806788490494</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="P23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0890268032919</v>
+        <v>120.8806788490491</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.77848998202531</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>88.96491619802941</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29199,13 +29199,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>154.7904845807923</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>154.2051587647581</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -29299,13 +29299,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>105.870369794354</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943557</v>
       </c>
       <c r="N26" t="n">
         <v>113.4301655082087</v>
@@ -29542,7 +29542,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
-        <v>105.8703697943538</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N29" t="n">
         <v>113.4301655082087</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943557</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>141.735890147585</v>
       </c>
       <c r="J32" t="n">
-        <v>113.8842414962186</v>
+        <v>141.735890147585</v>
       </c>
       <c r="K32" t="n">
         <v>141.735890147585</v>
@@ -29779,19 +29779,19 @@
         <v>141.735890147585</v>
       </c>
       <c r="M32" t="n">
+        <v>113.8842414962179</v>
+      </c>
+      <c r="N32" t="n">
         <v>141.735890147585</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>141.735890147585</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>141.735890147585</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>89.73190363910518</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>102.4257494917422</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>141.735890147585</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>64.27378155889504</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>141.735890147585</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>141.735890147585</v>
@@ -30007,7 +30007,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>166.1290651424569</v>
@@ -30019,13 +30019,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30150,10 +30150,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30168,7 +30168,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>15.87225906581408</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>116.9787331327007</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550405</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30408,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>23.31756564084429</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>40.58157162934914</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,10 +30502,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30633,13 +30633,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>106.142283029922</v>
+        <v>79.68963508529259</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>40.58157162934924</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R44" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30876,7 +30876,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>91.55439212798072</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280147</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -33977,7 +33977,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>67.09581914387134</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,7 +34708,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>376.5229044114596</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>128.5739300826407</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>188.126820796785</v>
       </c>
       <c r="N3" t="n">
-        <v>499.7914826407792</v>
+        <v>499.7914826407786</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>214.2757366774551</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>250.3832687656931</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -35018,19 +35018,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>499.7914826407792</v>
+        <v>332.1871516581579</v>
       </c>
       <c r="O6" t="n">
-        <v>292.9268575815924</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35264,10 +35264,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.6469478195453</v>
+        <v>182.6469478195451</v>
       </c>
       <c r="K11" t="n">
-        <v>265.9401827289731</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>440.7746712887051</v>
       </c>
       <c r="N11" t="n">
-        <v>492.0740330871312</v>
+        <v>492.0740330871311</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>340.3826570955529</v>
+        <v>340.3826570955528</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>20.18924188467679</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062412</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.46447932381297</v>
+        <v>50.46447932381285</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8647695082703</v>
+        <v>143.8647695082701</v>
       </c>
       <c r="L13" t="n">
-        <v>211.5444580492966</v>
+        <v>211.5444580492965</v>
       </c>
       <c r="M13" t="n">
-        <v>229.1065052486322</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.5396725435803</v>
+        <v>229.5396725435802</v>
       </c>
       <c r="O13" t="n">
-        <v>209.3793743073069</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P13" t="n">
-        <v>173.525674542103</v>
+        <v>173.5256745421028</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.76917759093412</v>
+        <v>71.76917759093399</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>352.4871778922493</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3205122762529</v>
+        <v>394.962758997653</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>507.1324245673051</v>
       </c>
       <c r="N14" t="n">
         <v>492.0740330871312</v>
@@ -35662,10 +35662,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>340.3826570955529</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.9495070800683</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.45524801062412</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.46447932381297</v>
+        <v>50.46447932381292</v>
       </c>
       <c r="K16" t="n">
-        <v>143.8647695082703</v>
+        <v>143.8647695082702</v>
       </c>
       <c r="L16" t="n">
         <v>211.5444580492966</v>
       </c>
       <c r="M16" t="n">
-        <v>229.1065052486322</v>
+        <v>229.1065052486321</v>
       </c>
       <c r="N16" t="n">
         <v>229.5396725435803</v>
       </c>
       <c r="O16" t="n">
-        <v>209.3793743073069</v>
+        <v>209.3793743073068</v>
       </c>
       <c r="P16" t="n">
-        <v>173.525674542103</v>
+        <v>173.5256745421029</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.76917759093412</v>
+        <v>71.76917759093406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>413.6550591717594</v>
       </c>
       <c r="L17" t="n">
-        <v>382.5481419624149</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>568.3003058468151</v>
+        <v>428.3600542534672</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,10 +35899,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>401.5505383750628</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>266.4751416381778</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>101.6233125255146</v>
+        <v>104.8726228657921</v>
       </c>
       <c r="M19" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>122.8678373600758</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>413.6550591717594</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>568.3003058468151</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>413.3016627732931</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>261.6102867817154</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.4751416381778</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>155.898604348599</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>122.4346700651277</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>518.0919578925726</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.1744656647404</v>
       </c>
       <c r="P23" t="n">
-        <v>401.5505383750628</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>81.35712316418676</v>
+        <v>31.14877520994391</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>354.469754998127</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>229.2373586066875</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36495,13 +36495,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>3.249310340277443</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>348.4364021628214</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>503.0816488378788</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
-        <v>503.081648837877</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N29" t="n">
         <v>495.583053071558</v>
@@ -36847,7 +36847,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>336.3318813661266</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.6100437919818</v>
+        <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
-        <v>384.3019225160524</v>
+        <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1352569000559</v>
+        <v>493.135256900056</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9471691911082</v>
+        <v>511.0955205397411</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
-        <v>449.8213290090334</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>372.197401719356</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824709</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.6795141320733</v>
       </c>
       <c r="L34" t="n">
-        <v>243.3592026730996</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>183.8923085786934</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>201.8839782752671</v>
       </c>
       <c r="P34" t="n">
-        <v>205.340419165906</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.5839222147372</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>408.6950975109244</v>
@@ -37315,13 +37315,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960499</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37446,10 +37446,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>49.81588305030238</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851717</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233488</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>101.6233125255146</v>
+        <v>124.9408781663589</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>113.3073739251124</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,10 +37798,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37929,13 +37929,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.68561682995296</v>
+        <v>20.2329688853236</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>189.7045354284644</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926985</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.58789090194199</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.09772592801172</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.68561682995361</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
